--- a/work_progress/user32.xlsx
+++ b/work_progress/user32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slime\source\repos\PlatformInvoke\work_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6233610A-B0C1-4B6C-88F1-C6A15DFFDCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019F22F-C32D-476D-BDC8-27BE2552F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="4509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6868" uniqueCount="4511">
   <si>
     <t>EnumDisplaySettingsExA</t>
   </si>
@@ -13510,9 +13510,6 @@
     <t>未公开</t>
   </si>
   <si>
-    <t>工作中</t>
-  </si>
-  <si>
     <t>不完善</t>
   </si>
   <si>
@@ -13565,15 +13562,31 @@
   </si>
   <si>
     <t>MF_*</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>找不到文档, 因此找不到 flags 所对应的常量</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -13600,13 +13613,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13936,13 +13955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C1ED8-C4EF-4586-8227-99147056C604}">
-  <dimension ref="A1:H2249"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13952,15 +13971,15 @@
     <col min="3" max="3" width="8.6640625" style="2"/>
     <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="2"/>
-    <col min="10" max="10" width="15.4140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="32" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.4140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.08203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="2"/>
+    <col min="11" max="11" width="15.4140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4483</v>
       </c>
@@ -13976,17 +13995,23 @@
       <c r="E1" s="1" t="s">
         <v>4486</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4508</v>
+      </c>
       <c r="G1" s="2" t="str">
-        <f>"收编: "&amp;TEXT(COUNTIF(E1:E114514, "已完成") + COUNTIF(E1:E114514, "不完善"), "00000")</f>
-        <v>收编: 00062</v>
+        <f>"收编: "&amp;TEXT(COUNTIF(E1:E114514, "已完成") + COUNTIF(E1:E114514, "不完善"), "0000")</f>
+        <v>收编: 0073</v>
       </c>
       <c r="H1" s="2" t="str">
+        <f>"咕咕咕: "&amp;TEXT(COUNTIF(E1:E114514, "未完成"), "0000")</f>
+        <v>咕咕咕: 0003</v>
+      </c>
+      <c r="I1" s="2" t="str">
         <f>"找不到定义数量: "&amp;TEXT(COUNTIF(E1:E114514, "找不到定义"), "0000")</f>
-        <v>找不到定义数量: 0009</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>找不到定义数量: 0010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>759</v>
       </c>
@@ -14003,7 +14028,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>761</v>
       </c>
@@ -14020,7 +14045,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>762</v>
       </c>
@@ -14037,7 +14062,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>764</v>
       </c>
@@ -14054,7 +14079,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>766</v>
       </c>
@@ -14071,7 +14096,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>768</v>
       </c>
@@ -14088,7 +14113,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>770</v>
       </c>
@@ -14105,7 +14130,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>772</v>
       </c>
@@ -14122,7 +14147,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>774</v>
       </c>
@@ -14139,7 +14164,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>776</v>
       </c>
@@ -14156,7 +14181,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>778</v>
       </c>
@@ -14173,7 +14198,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>780</v>
       </c>
@@ -14190,7 +14215,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>782</v>
       </c>
@@ -14207,7 +14232,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>784</v>
       </c>
@@ -14224,7 +14249,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>786</v>
       </c>
@@ -14513,7 +14538,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>817</v>
       </c>
@@ -14530,7 +14555,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>820</v>
       </c>
@@ -14547,7 +14572,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>822</v>
       </c>
@@ -14564,7 +14589,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>824</v>
       </c>
@@ -14581,7 +14606,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>826</v>
       </c>
@@ -14598,7 +14623,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>828</v>
       </c>
@@ -14615,7 +14640,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>830</v>
       </c>
@@ -14632,7 +14657,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>832</v>
       </c>
@@ -14649,7 +14674,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>834</v>
       </c>
@@ -14666,7 +14691,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>836</v>
       </c>
@@ -14680,10 +14705,10 @@
         <v>837</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>838</v>
       </c>
@@ -14696,9 +14721,11 @@
       <c r="D43" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>840</v>
       </c>
@@ -14711,9 +14738,11 @@
       <c r="D44" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>842</v>
       </c>
@@ -14726,9 +14755,11 @@
       <c r="D45" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>844</v>
       </c>
@@ -14742,10 +14773,13 @@
         <v>845</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4490</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>846</v>
       </c>
@@ -14759,10 +14793,11 @@
         <v>847</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4490</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>848</v>
       </c>
@@ -14826,7 +14861,9 @@
       <c r="D51" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>4510</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -14841,7 +14878,9 @@
       <c r="D52" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>4510</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -14873,7 +14912,9 @@
       <c r="D54" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>4510</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -15317,7 +15358,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>914</v>
       </c>
@@ -15334,7 +15375,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>916</v>
       </c>
@@ -15351,7 +15392,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>918</v>
       </c>
@@ -15368,7 +15409,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>920</v>
       </c>
@@ -15385,7 +15426,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>922</v>
       </c>
@@ -15402,7 +15443,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>924</v>
       </c>
@@ -15419,7 +15460,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>926</v>
       </c>
@@ -15436,7 +15477,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>928</v>
       </c>
@@ -15453,7 +15494,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>930</v>
       </c>
@@ -15466,9 +15507,11 @@
       <c r="D89" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>932</v>
       </c>
@@ -15481,9 +15524,11 @@
       <c r="D90" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>934</v>
       </c>
@@ -15496,9 +15541,11 @@
       <c r="D91" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>936</v>
       </c>
@@ -15511,9 +15558,11 @@
       <c r="D92" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>938</v>
       </c>
@@ -15526,9 +15575,11 @@
       <c r="D93" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>940</v>
       </c>
@@ -15541,9 +15592,11 @@
       <c r="D94" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="1" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>942</v>
       </c>
@@ -15556,9 +15609,11 @@
       <c r="D95" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="1" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>944</v>
       </c>
@@ -15571,9 +15626,12 @@
       <c r="D96" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>946</v>
       </c>
@@ -15586,9 +15644,12 @@
       <c r="D97" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>948</v>
       </c>
@@ -15603,7 +15664,7 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>950</v>
       </c>
@@ -15618,7 +15679,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>952</v>
       </c>
@@ -15633,7 +15694,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>954</v>
       </c>
@@ -15648,7 +15709,7 @@
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>956</v>
       </c>
@@ -15663,7 +15724,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>958</v>
       </c>
@@ -15678,7 +15739,7 @@
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>960</v>
       </c>
@@ -15693,7 +15754,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>962</v>
       </c>
@@ -15708,7 +15769,7 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>964</v>
       </c>
@@ -15723,7 +15784,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>966</v>
       </c>
@@ -15738,7 +15799,7 @@
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>968</v>
       </c>
@@ -15753,7 +15814,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>970</v>
       </c>
@@ -15768,7 +15829,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>972</v>
       </c>
@@ -15783,7 +15844,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>974</v>
       </c>
@@ -15798,7 +15859,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>976</v>
       </c>
@@ -45703,6 +45764,10 @@
       <c r="E2249" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F96:F97"/>
+  </mergeCells>
   <conditionalFormatting sqref="E1:E1048576 F1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"未公开"</formula>
@@ -45746,79 +45811,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C1" t="s">
         <v>4495</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4497</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4496</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B2" t="s">
         <v>4492</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4493</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="C3" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="B4" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="C4" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="B5" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C5" t="s">
         <v>4500</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="C6" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="B7" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="C7" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>

--- a/work_progress/user32.xlsx
+++ b/work_progress/user32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slime\source\repos\PlatformInvoke\work_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019F22F-C32D-476D-BDC8-27BE2552F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FFE98-DB64-4101-9EA0-E7913FEE7E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="3920" windowWidth="24000" windowHeight="14170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6868" uniqueCount="4511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6879" uniqueCount="4511">
   <si>
     <t>EnumDisplaySettingsExA</t>
   </si>
@@ -13958,10 +13958,10 @@
   <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="G1" s="2" t="str">
         <f>"收编: "&amp;TEXT(COUNTIF(E1:E114514, "已完成") + COUNTIF(E1:E114514, "不完善"), "0000")</f>
-        <v>收编: 0073</v>
+        <v>收编: 0083</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>"咕咕咕: "&amp;TEXT(COUNTIF(E1:E114514, "未完成"), "0000")</f>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="I1" s="2" t="str">
         <f>"找不到定义数量: "&amp;TEXT(COUNTIF(E1:E114514, "找不到定义"), "0000")</f>
-        <v>找不到定义数量: 0010</v>
+        <v>找不到定义数量: 0011</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15662,7 +15662,9 @@
       <c r="D98" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -15677,7 +15679,9 @@
       <c r="D99" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -15692,7 +15696,9 @@
       <c r="D100" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
@@ -15707,7 +15713,9 @@
       <c r="D101" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
@@ -15722,7 +15730,9 @@
       <c r="D102" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -15737,7 +15747,9 @@
       <c r="D103" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
@@ -15752,7 +15764,9 @@
       <c r="D104" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -15767,7 +15781,9 @@
       <c r="D105" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -15782,7 +15798,9 @@
       <c r="D106" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>4487</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -15797,7 +15815,9 @@
       <c r="D107" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
@@ -15842,7 +15862,9 @@
       <c r="D110" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">

--- a/work_progress/user32.xlsx
+++ b/work_progress/user32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slime\source\repos\PlatformInvoke\work_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FFE98-DB64-4101-9EA0-E7913FEE7E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DE008-8D5D-49BB-8003-03BA3BD6C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="3920" windowWidth="24000" windowHeight="14170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6879" uniqueCount="4511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6881" uniqueCount="4511">
   <si>
     <t>EnumDisplaySettingsExA</t>
   </si>
@@ -13955,13 +13955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C1ED8-C4EF-4586-8227-99147056C604}">
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:K2249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomRight" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13972,14 +13972,14 @@
     <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
-    <col min="7" max="8" width="15.4140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.08203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="2"/>
-    <col min="11" max="11" width="15.4140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="2"/>
+    <col min="7" max="9" width="15.4140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.4140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4483</v>
       </c>
@@ -14000,18 +14000,26 @@
       </c>
       <c r="G1" s="2" t="str">
         <f>"收编: "&amp;TEXT(COUNTIF(E1:E114514, "已完成") + COUNTIF(E1:E114514, "不完善"), "0000")</f>
-        <v>收编: 0083</v>
+        <v>收编: 0085</v>
       </c>
       <c r="H1" s="2" t="str">
+        <f>"已处理: "&amp;TEXT(COUNTA(E2:E114514), "0000")</f>
+        <v>已处理: 0109</v>
+      </c>
+      <c r="I1" s="2" t="str">
         <f>"咕咕咕: "&amp;TEXT(COUNTIF(E1:E114514, "未完成"), "0000")</f>
         <v>咕咕咕: 0003</v>
       </c>
-      <c r="I1" s="2" t="str">
-        <f>"找不到定义数量: "&amp;TEXT(COUNTIF(E1:E114514, "找不到定义"), "0000")</f>
-        <v>找不到定义数量: 0011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="str">
+        <f>"找不到定义: "&amp;TEXT(COUNTIF(E1:E114514, "找不到定义"), "0000")</f>
+        <v>找不到定义: 0011</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>"未公开: "&amp;TEXT(COUNTIF(E1:E114514, "未公开"), "0000")</f>
+        <v>未公开: 0010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>759</v>
       </c>
@@ -14028,7 +14036,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>761</v>
       </c>
@@ -14045,7 +14053,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>762</v>
       </c>
@@ -14062,7 +14070,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>764</v>
       </c>
@@ -14079,7 +14087,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>766</v>
       </c>
@@ -14096,7 +14104,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>768</v>
       </c>
@@ -14113,7 +14121,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>770</v>
       </c>
@@ -14130,7 +14138,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>772</v>
       </c>
@@ -14147,7 +14155,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>774</v>
       </c>
@@ -14164,7 +14172,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>776</v>
       </c>
@@ -14181,7 +14189,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>778</v>
       </c>
@@ -14198,7 +14206,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>780</v>
       </c>
@@ -14215,7 +14223,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>782</v>
       </c>
@@ -14232,7 +14240,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>784</v>
       </c>
@@ -14249,7 +14257,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>786</v>
       </c>
@@ -15832,7 +15840,9 @@
       <c r="D108" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
@@ -15847,7 +15857,9 @@
       <c r="D109" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">

--- a/work_progress/user32.xlsx
+++ b/work_progress/user32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slime\source\repos\PlatformInvoke\work_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DE008-8D5D-49BB-8003-03BA3BD6C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8FB85-4FBD-44EF-B6E2-B73F7186C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="3920" windowWidth="24000" windowHeight="14170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6881" uniqueCount="4511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6886" uniqueCount="4512">
   <si>
     <t>EnumDisplaySettingsExA</t>
   </si>
@@ -13571,6 +13571,9 @@
   </si>
   <si>
     <t>未完成</t>
+  </si>
+  <si>
+    <t>工作中</t>
   </si>
 </sst>
 </file>
@@ -13958,10 +13961,10 @@
   <dimension ref="A1:K2249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F106" sqref="F106"/>
+      <selection pane="bottomRight" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14000,11 +14003,11 @@
       </c>
       <c r="G1" s="2" t="str">
         <f>"收编: "&amp;TEXT(COUNTIF(E1:E114514, "已完成") + COUNTIF(E1:E114514, "不完善"), "0000")</f>
-        <v>收编: 0085</v>
+        <v>收编: 0089</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>"已处理: "&amp;TEXT(COUNTA(E2:E114514), "0000")</f>
-        <v>已处理: 0109</v>
+        <v>已处理: 0114</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>"咕咕咕: "&amp;TEXT(COUNTIF(E1:E114514, "未完成"), "0000")</f>
@@ -15891,7 +15894,9 @@
       <c r="D111" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -15906,7 +15911,9 @@
       <c r="D112" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>4511</v>
+      </c>
     </row>
     <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
@@ -15921,7 +15928,9 @@
       <c r="D113" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -15936,7 +15945,9 @@
       <c r="D114" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="115" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
@@ -15951,7 +15962,9 @@
       <c r="D115" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>4488</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
